--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -306,6 +312,9 @@
   </si>
   <si>
     <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -457,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -469,6 +478,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,85 +500,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -590,1245 +615,1434 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -1340,7 +1340,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>80</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,34 +32,37 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Decreto di naturalizzazione straniero</t>
+  </si>
+  <si>
+    <t>Documentazione relativa all’assunzione pubblico impiego</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Decreto di naturalizzazione straniero</t>
-  </si>
-  <si>
-    <t>Documentazione relativa all’assunzione pubblico impiego</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>84</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -616,1433 +619,1433 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -317,7 +317,7 @@
     <t>evento.interprete</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -481,7 +481,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -62,6 +62,18 @@
     <t>84</t>
   </si>
   <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -315,6 +327,9 @@
   </si>
   <si>
     <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
   </si>
   <si>
     <t>evento.ausilioInterprete,=,false</t>
@@ -469,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -600,1452 +615,1544 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>21</v>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -182,6 +182,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -321,6 +327,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -484,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1082,7 +1091,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1174,7 +1183,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>34</v>
@@ -1206,7 +1215,7 @@
         <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>25</v>
@@ -1229,7 +1238,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>25</v>
@@ -1252,7 +1261,7 @@
         <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>25</v>
@@ -1283,22 +1292,22 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>25</v>
@@ -1306,19 +1315,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1329,19 +1338,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1352,7 +1361,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>84</v>
@@ -1361,10 +1370,10 @@
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1375,16 +1384,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>88</v>
@@ -1398,7 +1407,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>89</v>
@@ -1407,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>90</v>
@@ -1421,7 +1430,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>91</v>
@@ -1430,7 +1439,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>92</v>
@@ -1444,7 +1453,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>93</v>
@@ -1453,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>94</v>
@@ -1467,16 +1476,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>96</v>
@@ -1490,7 +1499,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>97</v>
@@ -1499,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
@@ -1513,7 +1522,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>99</v>
@@ -1522,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>100</v>
@@ -1536,7 +1545,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>101</v>
@@ -1545,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>102</v>
@@ -1559,306 +1568,306 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>116</v>
@@ -1867,90 +1876,90 @@
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>120</v>
@@ -1959,21 +1968,21 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>121</v>
@@ -1982,176 +1991,245 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="F73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -1597,7 +1597,7 @@
         <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>87</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -341,7 +341,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -401,7 +401,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -505,7 +505,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -401,7 +401,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>Firmatario</t>
+    <t>flag firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -401,7 +401,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Dati Generali</t>
@@ -493,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1315,19 +1339,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1338,19 +1362,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1361,19 +1385,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1384,19 +1408,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1407,19 +1431,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1430,19 +1454,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1453,19 +1477,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1476,16 +1500,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>96</v>
@@ -1499,16 +1523,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
@@ -1522,16 +1546,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>100</v>
@@ -1545,16 +1569,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>102</v>
@@ -1568,16 +1592,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>104</v>
@@ -1591,19 +1615,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1614,622 +1638,714 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="B76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -134,6 +134,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -386,10 +392,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -517,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -931,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
@@ -1023,7 +1026,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
@@ -1055,7 +1058,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>25</v>
@@ -1078,7 +1081,7 @@
         <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>25</v>
@@ -1101,7 +1104,7 @@
         <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>25</v>
@@ -1124,7 +1127,7 @@
         <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>25</v>
@@ -1138,7 +1141,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1230,7 +1233,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>34</v>
@@ -1262,7 +1265,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>25</v>
@@ -1285,7 +1288,7 @@
         <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>25</v>
@@ -1308,7 +1311,7 @@
         <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>25</v>
@@ -1354,7 +1357,7 @@
         <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>25</v>
@@ -1431,19 +1434,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1457,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1480,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1500,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>94</v>
@@ -1509,10 +1512,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1523,16 +1526,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>99</v>
@@ -1555,7 +1558,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>100</v>
@@ -1569,7 +1572,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>101</v>
@@ -1578,7 +1581,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>102</v>
@@ -1592,7 +1595,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>103</v>
@@ -1601,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>104</v>
@@ -1615,16 +1618,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>106</v>
@@ -1638,7 +1641,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>107</v>
@@ -1647,7 +1650,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>108</v>
@@ -1661,7 +1664,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>109</v>
@@ -1670,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>110</v>
@@ -1684,7 +1687,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>111</v>
@@ -1693,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>112</v>
@@ -1707,19 +1710,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1730,191 +1733,191 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>122</v>
@@ -1923,21 +1926,21 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>123</v>
@@ -1946,378 +1949,378 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,24 +2331,70 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="E81" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -110,6 +110,18 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Riassunto della dichiarazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>riassuntoDichiarazione</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
@@ -206,6 +218,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
     <t>Stato Residenza</t>
   </si>
   <si>
@@ -272,16 +290,22 @@
     <t>nomeComuneAIRE</t>
   </si>
   <si>
-    <t>Dati Generali</t>
-  </si>
-  <si>
-    <t>Riassunto della dichiarazione</t>
-  </si>
-  <si>
-    <t>evento.datiEventoCittadinanza</t>
-  </si>
-  <si>
-    <t>riassuntoDichiarazione</t>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Dati Perdita Cittadinanza</t>
@@ -416,22 +440,7 @@
     <t>Indirizzo di residenza</t>
   </si>
   <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
     <t>Firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -520,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -865,7 +874,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>34</v>
@@ -874,7 +883,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>25</v>
@@ -882,22 +891,22 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>25</v>
@@ -905,19 +914,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -928,19 +937,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -951,19 +960,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -974,19 +983,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -997,19 +1006,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1020,19 +1029,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1043,19 +1052,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1066,22 +1075,22 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>25</v>
@@ -1089,22 +1098,22 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>25</v>
@@ -1112,22 +1121,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>25</v>
@@ -1135,22 +1144,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>25</v>
@@ -1158,19 +1167,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1181,19 +1190,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1204,19 +1213,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1227,19 +1236,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1250,19 +1259,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1273,19 +1282,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
@@ -1296,19 +1305,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1319,19 +1328,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
@@ -1342,22 +1351,22 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>25</v>
@@ -1365,22 +1374,22 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>25</v>
@@ -1388,22 +1397,22 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>25</v>
@@ -1411,19 +1420,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1434,19 +1443,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1457,16 +1466,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>89</v>
@@ -1480,19 +1489,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1503,19 +1512,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1535,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1558,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1581,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1595,19 +1604,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1618,16 +1627,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>106</v>
@@ -1641,16 +1650,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>108</v>
@@ -1664,16 +1673,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>110</v>
@@ -1687,16 +1696,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>112</v>
@@ -1710,16 +1719,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>114</v>
@@ -1733,19 +1742,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1756,645 +1765,760 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="F84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,6 +74,12 @@
     <t>197</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -417,6 +423,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -529,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -752,1319 +764,1319 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>132</v>
@@ -2073,21 +2085,21 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>133</v>
@@ -2096,430 +2108,499 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="F87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -312,6 +312,81 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Dati Perdita Cittadinanza</t>
@@ -541,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1645,56 +1720,56 @@
         <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>108</v>
@@ -1703,21 +1778,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>110</v>
@@ -1726,21 +1801,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>112</v>
@@ -1749,426 +1824,426 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>64</v>
@@ -2177,429 +2252,705 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -398,7 +398,7 @@
     <t>motivoPerditaCittadinanza</t>
   </si>
   <si>
-    <t>Documentazione realtiva al pubblico impiego</t>
+    <t>Documentazione relativa al pubblico impiego</t>
   </si>
   <si>
     <t>Tempistica assunzione</t>
@@ -2548,7 +2548,7 @@
         <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>152</v>
@@ -2571,7 +2571,7 @@
         <v>161</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>152</v>
@@ -2580,7 +2580,7 @@
         <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>154</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_030.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -616,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1145,7 +1157,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -1168,7 +1180,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>40</v>
@@ -1214,7 +1226,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>40</v>
@@ -1237,7 +1249,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>40</v>
@@ -1246,7 +1258,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>27</v>
@@ -1329,7 +1341,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>40</v>
@@ -1338,7 +1350,7 @@
         <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>27</v>
@@ -1352,7 +1364,7 @@
         <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>40</v>
@@ -1375,7 +1387,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>40</v>
@@ -1398,7 +1410,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>40</v>
@@ -1430,7 +1442,7 @@
         <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
@@ -1545,7 +1557,7 @@
         <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>27</v>
@@ -1568,7 +1580,7 @@
         <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>27</v>
@@ -1591,7 +1603,7 @@
         <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>27</v>
@@ -1651,7 +1663,7 @@
         <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>40</v>
@@ -1674,7 +1686,7 @@
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>40</v>
@@ -1714,76 +1726,76 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>109</v>
@@ -1792,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>110</v>
@@ -1801,12 +1813,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>111</v>
@@ -1815,7 +1827,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>112</v>
@@ -1824,12 +1836,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>113</v>
@@ -1838,113 +1850,113 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>121</v>
@@ -1953,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>122</v>
@@ -1962,12 +1974,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>123</v>
@@ -1976,7 +1988,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>124</v>
@@ -1985,70 +1997,70 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2071,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2082,16 +2094,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>137</v>
@@ -2105,7 +2117,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>138</v>
@@ -2114,7 +2126,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>139</v>
@@ -2128,7 +2140,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>140</v>
@@ -2137,7 +2149,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>141</v>
@@ -2151,16 +2163,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>143</v>
@@ -2174,16 +2186,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>145</v>
@@ -2197,7 +2209,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>146</v>
@@ -2206,7 +2218,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>147</v>
@@ -2220,7 +2232,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>148</v>
@@ -2229,7 +2241,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>149</v>
@@ -2243,19 +2255,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2266,398 +2278,398 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G79" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>165</v>
@@ -2666,21 +2678,21 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>166</v>
@@ -2689,44 +2701,44 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>168</v>
@@ -2735,21 +2747,21 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>169</v>
@@ -2758,21 +2770,21 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>170</v>
@@ -2781,176 +2793,268 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>27</v>
       </c>
     </row>
